--- a/biology/Histoire de la zoologie et de la botanique/François_Doumenge/François_Doumenge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Doumenge/François_Doumenge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Doumenge</t>
+          <t>François_Doumenge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Doumenge, né le 9 octobre 1926 à Viane (Tarn) et mort le 14 juillet 2008 à Nice[1], est un géographe français, spécialiste de géographie maritime et de l'insularité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Doumenge, né le 9 octobre 1926 à Viane (Tarn) et mort le 14 juillet 2008 à Nice, est un géographe français, spécialiste de géographie maritime et de l'insularité.
 Ses travaux ont porté sur l'océanographie et la socio-économie des pêches thonières, la pêche et l'aquaculture japonaise, l'évolution des archipels de Mélanésie, Polynésie et Micronésie.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Doumenge</t>
+          <t>François_Doumenge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et diplômes
-1946-1950 : Licence et DES de géographie (Montpellier, Aix) et licence de droit
+          <t>Formation et diplômes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1946-1950 : Licence et DES de géographie (Montpellier, Aix) et licence de droit
 1953 : Agrégation de géographie
-1966 : Doctorat d'État ès lettres (géographie)
-Carrière
-François Doumenge a commencé sa carrière à l'université Paul-Valéry de Montpellier, au département de géographie.
+1966 : Doctorat d'État ès lettres (géographie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>François_Doumenge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Doumenge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Doumenge a commencé sa carrière à l'université Paul-Valéry de Montpellier, au département de géographie.
 1948-1953 : Professeur certifié, Collège Paulhan
 1953-1957 : Professeur agrégé, Lycée Montpellier
 1957-1961 : Assistant, Faculté des lettres, Montpellier
@@ -535,36 +586,38 @@
 En tant qu'adjoint au maire de Montpellier, François Doumenge s'est vu confier le projet de créer un parc animalier : « le parc zoologique de Lunaret » qui a ouvert ses portes en 1964, avec de vastes enclos séparés du public par des profonds fossés, excluant toutes cages ou clôtures, pour permettre aux animaux de vivre dans un milieu naturel.
 Il fut recteur de l'Académie des Antilles et de la Guyane de 1976 à 1979.
 Il a été élu en juin 1979 professeur au Muséum national d'histoire naturelle, à la chaire d’éthologie et de conservation des espèces animales dont dépendent entre autres les parcs zoologiques de Vincennes et du Jardin des plantes à Paris, la réserve zoologique de la Haute-Touche dans le parc naturel régional de la Brenne et, à l'époque, le parc zoologique de Clères. Il est appelé également par le Président Jacques Chirac à la présidence de l'Orstom, aujourd'hui IRD, qu'il occupera de 1986 à 1988. 
-À cette date il quitte ces fonctions pour diriger le Musée océanographique de Monaco[2] où il succèdera à Jacques-Yves Cousteau de 1988 à 2001, tout en restant professeur émérite au Muséum national d'histoire naturelle.  Il est nommé par ailleurs, de 1988 à 2007, Secrétaire général de la Commission internationale pour l'exploration scientifique de la Méditerranée (CIESM), et est élu en 1988 pour quatre ans président de la Commission de l'écologie de l'Union internationale pour la conservation de la nature lors du Congrès mondial de l'UICN à San Jose, Coasta Rica. Il représente enfin la principauté de Monaco) à la Commission baleinière internationale de 1991 à 1997.
+À cette date il quitte ces fonctions pour diriger le Musée océanographique de Monaco où il succèdera à Jacques-Yves Cousteau de 1988 à 2001, tout en restant professeur émérite au Muséum national d'histoire naturelle.  Il est nommé par ailleurs, de 1988 à 2007, Secrétaire général de la Commission internationale pour l'exploration scientifique de la Méditerranée (CIESM), et est élu en 1988 pour quatre ans président de la Commission de l'écologie de l'Union internationale pour la conservation de la nature lors du Congrès mondial de l'UICN à San Jose, Coasta Rica. Il représente enfin la principauté de Monaco) à la Commission baleinière internationale de 1991 à 1997.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Doumenge</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Doumenge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Doumenge</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre du Nichan el Anouar, 1961
  Chevalier de l'ordre national du Mérite, 1974
@@ -576,31 +629,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Doumenge</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Doumenge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Doumenge</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Japon et l'exploitation de la mer, Société languedocienne de géographie, Montpellier, 1961.
 Géographie des mers, Presses universitaires de France, 1965.
